--- a/data/transformed_data_2017.xlsx
+++ b/data/transformed_data_2017.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>603538.886970128</v>
+        <v>612819.918170128</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>77857.08</v>
+        <v>66957.0888</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11564</v>
+        <v>9945.039999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17047.99546628734</v>
+        <v>16758.91506628734</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>57.82</v>
+        <v>49.7252</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2122.68</v>
+        <v>1825.5048</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7844,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16466.27661109531</v>
+        <v>17204.5498110953</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>14011.06</v>
+        <v>12049.5116</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8348,7 +8348,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8737.68</v>
+        <v>7514.4048</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5688.667253485064</v>
+        <v>5594.959653485064</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>889.84</v>
+        <v>765.2624</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1559.18</v>
+        <v>1340.8948</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13330,7 +13330,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19660.3857598862</v>
+        <v>20080.0805598862</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13666,7 +13666,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>14280.56</v>
+        <v>12281.2816</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13834,7 +13834,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11282.74</v>
+        <v>9703.1564</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16059,7 +16059,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22006.29696273115</v>
+        <v>21861.55096273115</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16395,7 +16395,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1088.78</v>
+        <v>936.3508</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16563,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2122.68</v>
+        <v>1825.5048</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18802,7 +18802,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16221.06117837838</v>
+        <v>15632.61037837838</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19138,7 +19138,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8267.280000000001</v>
+        <v>7109.860799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19306,7 +19306,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12470.5</v>
+        <v>10724.63</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21545,7 +21545,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10381.08164608819</v>
+        <v>10689.23284608819</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21881,7 +21881,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9726.5</v>
+        <v>8364.789999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22049,7 +22049,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7525.42</v>
+        <v>6471.861199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24288,7 +24288,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16205.80794537696</v>
+        <v>15508.00874537696</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24624,7 +24624,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5854.52</v>
+        <v>5034.8872</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24792,7 +24792,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10838.8</v>
+        <v>9321.368</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27031,7 +27031,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16301.50607453769</v>
+        <v>15647.74807453769</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27367,7 +27367,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1279.88</v>
+        <v>1100.6968</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27535,7 +27535,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5949.58</v>
+        <v>5116.6388</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29760,7 +29760,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8754.790075106686</v>
+        <v>9150.474875106687</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30096,7 +30096,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8836.66</v>
+        <v>7599.527599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30264,7 +30264,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6010.34</v>
+        <v>5168.8924</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32503,7 +32503,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>100331.0610105263</v>
+        <v>100230.3562105263</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32839,7 +32839,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3460.38</v>
+        <v>2975.9268</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -33007,7 +33007,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4179.7</v>
+        <v>3594.542</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35218,7 +35218,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9006.418388051208</v>
+        <v>8889.249588051209</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35554,7 +35554,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>89.17999999999999</v>
+        <v>76.6948</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35722,7 +35722,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>926.1</v>
+        <v>796.4459999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37947,7 +37947,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8426.595519203414</v>
+        <v>8037.770719203415</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38283,7 +38283,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>925.12</v>
+        <v>795.6032</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38451,7 +38451,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3702.44</v>
+        <v>3184.0984</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40662,7 +40662,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4225.89800853485</v>
+        <v>4193.793208534851</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40998,7 +40998,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3821.02</v>
+        <v>3286.0772</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41166,7 +41166,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4050.34</v>
+        <v>3483.2924</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43405,7 +43405,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3385.538724324324</v>
+        <v>3283.324724324324</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43741,7 +43741,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7264.74</v>
+        <v>6247.6764</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43909,7 +43909,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7994.84</v>
+        <v>6875.5624</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46148,7 +46148,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13763.7670230441</v>
+        <v>12950.03382304409</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46484,7 +46484,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5937.82</v>
+        <v>5106.5252</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46652,7 +46652,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11750.2</v>
+        <v>10105.172</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48891,7 +48891,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4674.71773940256</v>
+        <v>4561.390539402561</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49227,7 +49227,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6101.48</v>
+        <v>5247.2728</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49395,7 +49395,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6910.96</v>
+        <v>5943.4256</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51606,7 +51606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9674.468747083925</v>
+        <v>8988.743147083926</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51942,7 +51942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>472.36</v>
+        <v>406.2295999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52110,7 +52110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5370.4</v>
+        <v>4618.544</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54335,7 +54335,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4072.818244665717</v>
+        <v>4060.744644665718</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54671,7 +54671,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1604.26</v>
+        <v>1379.6636</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54839,7 +54839,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1690.5</v>
+        <v>1453.83</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57064,7 +57064,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9302.527911237552</v>
+        <v>9139.945911237552</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57400,7 +57400,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1812.02</v>
+        <v>1558.3372</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57568,7 +57568,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2973.32</v>
+        <v>2557.0552</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59793,7 +59793,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14404.23159487909</v>
+        <v>14691.11679487909</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60129,7 +60129,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5560.52</v>
+        <v>4782.0472</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60297,7 +60297,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3511.34</v>
+        <v>3019.7524</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62536,7 +62536,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>43337.37066344239</v>
+        <v>45269.42106344238</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62872,7 +62872,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21376.74</v>
+        <v>18383.9964</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63040,7 +63040,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7576.38</v>
+        <v>6515.686799999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65279,7 +65279,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3906.319506685633</v>
+        <v>3811.514306685633</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65615,7 +65615,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3096.8</v>
+        <v>2663.248</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65783,7 +65783,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3773.98</v>
+        <v>3245.6228</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68008,7 +68008,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>104373.3419254623</v>
+        <v>101021.8203254623</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68344,7 +68344,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>19421.64</v>
+        <v>16702.6104</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68512,7 +68512,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>43361.08</v>
+        <v>37290.5288</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70737,7 +70737,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>40846.80627482219</v>
+        <v>40001.65427482219</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71073,7 +71073,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2002.14</v>
+        <v>1721.8404</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71241,7 +71241,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8038.94</v>
+        <v>6913.4884</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73480,7 +73480,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>35827.88730355618</v>
+        <v>37831.14450355619</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73816,7 +73816,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21019.04</v>
+        <v>18076.3744</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73984,7 +73984,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6710.059999999999</v>
+        <v>5770.6516</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76223,7 +76223,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>23231.48473798008</v>
+        <v>24701.99433798008</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76559,7 +76559,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>35035</v>
+        <v>30130.1</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76727,7 +76727,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>24531.36</v>
+        <v>21096.9696</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78966,7 +78966,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>28963.34018719773</v>
+        <v>29321.56938719772</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79302,7 +79302,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7146.16</v>
+        <v>6145.6976</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79470,7 +79470,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4587.38</v>
+        <v>3945.1468</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81709,7 +81709,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16915.78591066856</v>
+        <v>16936.64031066856</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82045,7 +82045,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2789.08</v>
+        <v>2398.6088</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82213,7 +82213,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2640.12</v>
+        <v>2270.5032</v>
       </c>
     </row>
     <row r="168" spans="1:4">
